--- a/state_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
+++ b/state_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U201"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.06503524800253</v>
+        <v>1.06485605843523</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
@@ -651,7 +651,7 @@
         <v>0.022</v>
       </c>
       <c r="G3" t="n">
-        <v>0.022411831619981</v>
+        <v>0.0224147339421163</v>
       </c>
       <c r="H3" t="n">
         <v>0.08699999999999999</v>
@@ -732,7 +732,7 @@
         <v>0.022</v>
       </c>
       <c r="G4" t="n">
-        <v>0.022411831619981</v>
+        <v>0.0224147339421163</v>
       </c>
       <c r="H4" t="n">
         <v>0.08699999999999999</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.04556</v>
+        <v>0.04708</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0823982371161541</v>
+        <v>0.0824553401260571</v>
       </c>
       <c r="H9" t="n">
         <v>0.485</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.04556</v>
+        <v>0.04708</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0823982371161541</v>
+        <v>0.0824553401260571</v>
       </c>
       <c r="H10" t="n">
         <v>0.485</v>
@@ -1311,7 +1311,7 @@
         <v>0.527</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5734375</v>
+        <v>0.573454166666667</v>
       </c>
       <c r="H11" t="n">
         <v>1.264</v>
@@ -1388,7 +1388,7 @@
         <v>0.527</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5734375</v>
+        <v>0.573454166666667</v>
       </c>
       <c r="H12" t="n">
         <v>1.264</v>
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1.16658297066863</v>
+        <v>1.16644360100518</v>
       </c>
       <c r="H15" t="n">
         <v>3.9</v>
@@ -1704,7 +1704,7 @@
         <v>0.021</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0212564537145597</v>
+        <v>0.0212635372853411</v>
       </c>
       <c r="H16" t="n">
         <v>0.08699999999999999</v>
@@ -1785,7 +1785,7 @@
         <v>0.021</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0212564537145597</v>
+        <v>0.0212635372853411</v>
       </c>
       <c r="H17" t="n">
         <v>0.08699999999999999</v>
@@ -2206,7 +2206,7 @@
         <v>0.05648</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0953402596013867</v>
+        <v>0.0953865327301012</v>
       </c>
       <c r="H22" t="n">
         <v>0.529006438722192</v>
@@ -2287,7 +2287,7 @@
         <v>0.05648</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0953402596013867</v>
+        <v>0.0953865327301012</v>
       </c>
       <c r="H23" t="n">
         <v>0.529006438722192</v>
@@ -2526,7 +2526,7 @@
         <v>0.537</v>
       </c>
       <c r="G26" t="n">
-        <v>0.574864406779661</v>
+        <v>0.5748779661016949</v>
       </c>
       <c r="H26" t="n">
         <v>1.264</v>
@@ -2603,7 +2603,7 @@
         <v>0.537</v>
       </c>
       <c r="G27" t="n">
-        <v>0.574864406779661</v>
+        <v>0.5748779661016949</v>
       </c>
       <c r="H27" t="n">
         <v>1.264</v>
@@ -3073,7 +3073,7 @@
         <v>0.019</v>
       </c>
       <c r="G33" t="n">
-        <v>0.018951368968797</v>
+        <v>0.0189584525395784</v>
       </c>
       <c r="H33" t="n">
         <v>0.08699999999999999</v>
@@ -3154,7 +3154,7 @@
         <v>0.019</v>
       </c>
       <c r="G34" t="n">
-        <v>0.018951368968797</v>
+        <v>0.0189584525395784</v>
       </c>
       <c r="H34" t="n">
         <v>0.08699999999999999</v>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.535</v>
+        <v>0.5347</v>
       </c>
       <c r="G43" t="n">
         <v>0.562864406779661</v>
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.535</v>
+        <v>0.5347</v>
       </c>
       <c r="G44" t="n">
         <v>0.562864406779661</v>
@@ -4361,7 +4361,7 @@
         <v>1.15</v>
       </c>
       <c r="G49" t="n">
-        <v>1.35986082448415</v>
+        <v>1.35981589421305</v>
       </c>
       <c r="H49" t="n">
         <v>3.9</v>
@@ -4442,7 +4442,7 @@
         <v>0.018</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0184637771423718</v>
+        <v>0.0184684995019244</v>
       </c>
       <c r="H50" t="n">
         <v>0.08699999999999999</v>
@@ -4523,7 +4523,7 @@
         <v>0.018</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0184637771423718</v>
+        <v>0.0184684995019244</v>
       </c>
       <c r="H51" t="n">
         <v>0.08699999999999999</v>
@@ -5261,27 +5261,27 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.524</v>
+        <v>0.5244</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5282711864406781</v>
+        <v>0.528237288135593</v>
       </c>
       <c r="H60" t="n">
         <v>1.24</v>
       </c>
       <c r="I60" t="n">
-        <v>1.06905</v>
+        <v>1.06891</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.298</v>
+        <v>0.29785</v>
       </c>
       <c r="M60" t="n">
         <v>0.82099</v>
       </c>
       <c r="N60" t="n">
-        <v>0.98634</v>
+        <v>0.98625</v>
       </c>
       <c r="O60" t="n">
         <v>1816987.417</v>
@@ -5338,27 +5338,27 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.524</v>
+        <v>0.5244</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5282711864406781</v>
+        <v>0.528237288135593</v>
       </c>
       <c r="H61" t="n">
         <v>1.24</v>
       </c>
       <c r="I61" t="n">
-        <v>1.06905</v>
+        <v>1.06891</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.298</v>
+        <v>0.29785</v>
       </c>
       <c r="M61" t="n">
         <v>0.82099</v>
       </c>
       <c r="N61" t="n">
-        <v>0.98634</v>
+        <v>0.98625</v>
       </c>
       <c r="O61" t="n">
         <v>1816987.417</v>
@@ -5730,7 +5730,7 @@
         <v>1.525</v>
       </c>
       <c r="G66" t="n">
-        <v>1.49463038867697</v>
+        <v>1.49458443726334</v>
       </c>
       <c r="H66" t="n">
         <v>3.8</v>
@@ -5811,7 +5811,7 @@
         <v>0.017</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0160569974813548</v>
+        <v>0.0160617198409075</v>
       </c>
       <c r="H67" t="n">
         <v>0.035</v>
@@ -5892,7 +5892,7 @@
         <v>0.017</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0160569974813548</v>
+        <v>0.0160617198409075</v>
       </c>
       <c r="H68" t="n">
         <v>0.035</v>
@@ -6630,27 +6630,27 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.512</v>
+        <v>0.5122</v>
       </c>
       <c r="G77" t="n">
-        <v>0.528083333333333</v>
+        <v>0.528041666666667</v>
       </c>
       <c r="H77" t="n">
         <v>1.24</v>
       </c>
       <c r="I77" t="n">
-        <v>1.0645</v>
+        <v>1.06435</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.298</v>
+        <v>0.29785</v>
       </c>
       <c r="M77" t="n">
-        <v>0.8146</v>
+        <v>0.81453</v>
       </c>
       <c r="N77" t="n">
-        <v>0.9861</v>
+        <v>0.98598</v>
       </c>
       <c r="O77" t="n">
         <v>1816987.417</v>
@@ -6707,27 +6707,27 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.512</v>
+        <v>0.5122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.528083333333333</v>
+        <v>0.528041666666667</v>
       </c>
       <c r="H78" t="n">
         <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>1.0645</v>
+        <v>1.06435</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.298</v>
+        <v>0.29785</v>
       </c>
       <c r="M78" t="n">
-        <v>0.8146</v>
+        <v>0.81453</v>
       </c>
       <c r="N78" t="n">
-        <v>0.9861</v>
+        <v>0.98598</v>
       </c>
       <c r="O78" t="n">
         <v>1816987.417</v>
@@ -7099,7 +7099,7 @@
         <v>1.5</v>
       </c>
       <c r="G83" t="n">
-        <v>1.42036739415268</v>
+        <v>1.42032774979583</v>
       </c>
       <c r="H83" t="n">
         <v>3.8</v>
@@ -7180,7 +7180,7 @@
         <v>0.016</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0154014407216639</v>
+        <v>0.0154084521615795</v>
       </c>
       <c r="H84" t="n">
         <v>0.035</v>
@@ -7261,7 +7261,7 @@
         <v>0.016</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0154014407216639</v>
+        <v>0.0154084521615795</v>
       </c>
       <c r="H85" t="n">
         <v>0.035</v>
@@ -7342,7 +7342,7 @@
         <v>205.5</v>
       </c>
       <c r="G86" t="n">
-        <v>831.095227847184</v>
+        <v>831.0793090734099</v>
       </c>
       <c r="H86" t="n">
         <v>9678</v>
@@ -7427,7 +7427,7 @@
         <v>205.5</v>
       </c>
       <c r="G87" t="n">
-        <v>831.095227847184</v>
+        <v>831.0793090734099</v>
       </c>
       <c r="H87" t="n">
         <v>9678</v>
@@ -7512,7 +7512,7 @@
         <v>205.5</v>
       </c>
       <c r="G88" t="n">
-        <v>831.095227847184</v>
+        <v>831.0793090734099</v>
       </c>
       <c r="H88" t="n">
         <v>9678</v>
@@ -7597,7 +7597,7 @@
         <v>205.5</v>
       </c>
       <c r="G89" t="n">
-        <v>831.095227847184</v>
+        <v>831.0793090734099</v>
       </c>
       <c r="H89" t="n">
         <v>9678</v>
@@ -7682,7 +7682,7 @@
         <v>0.06916</v>
       </c>
       <c r="G90" t="n">
-        <v>0.123058962204825</v>
+        <v>0.123069706909843</v>
       </c>
       <c r="H90" t="n">
         <v>0.7</v>
@@ -7763,7 +7763,7 @@
         <v>0.06916</v>
       </c>
       <c r="G91" t="n">
-        <v>0.123058962204825</v>
+        <v>0.123069706909843</v>
       </c>
       <c r="H91" t="n">
         <v>0.7</v>
@@ -7999,10 +7999,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.4995</v>
+        <v>0.49955</v>
       </c>
       <c r="G94" t="n">
-        <v>0.533216666666667</v>
+        <v>0.533175</v>
       </c>
       <c r="H94" t="n">
         <v>1.26</v>
@@ -8013,13 +8013,13 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.2925</v>
+        <v>0.29235</v>
       </c>
       <c r="M94" t="n">
-        <v>0.8146</v>
+        <v>0.81453</v>
       </c>
       <c r="N94" t="n">
-        <v>1.0085</v>
+        <v>1.00817</v>
       </c>
       <c r="O94" t="n">
         <v>1816987.417</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.4995</v>
+        <v>0.49955</v>
       </c>
       <c r="G95" t="n">
-        <v>0.533216666666667</v>
+        <v>0.533175</v>
       </c>
       <c r="H95" t="n">
         <v>1.26</v>
@@ -8090,13 +8090,13 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.2925</v>
+        <v>0.29235</v>
       </c>
       <c r="M95" t="n">
-        <v>0.8146</v>
+        <v>0.81453</v>
       </c>
       <c r="N95" t="n">
-        <v>1.0085</v>
+        <v>1.00817</v>
       </c>
       <c r="O95" t="n">
         <v>1816987.417</v>
@@ -8468,7 +8468,7 @@
         <v>1.1</v>
       </c>
       <c r="G100" t="n">
-        <v>1.18811032888052</v>
+        <v>1.18807144691514</v>
       </c>
       <c r="H100" t="n">
         <v>3.8</v>
@@ -8549,7 +8549,7 @@
         <v>0.017</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0170393584945464</v>
+        <v>0.0170416475749093</v>
       </c>
       <c r="H101" t="n">
         <v>0.044</v>
@@ -8630,7 +8630,7 @@
         <v>0.017</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0170393584945464</v>
+        <v>0.0170416475749093</v>
       </c>
       <c r="H102" t="n">
         <v>0.044</v>
@@ -8711,7 +8711,7 @@
         <v>170</v>
       </c>
       <c r="G103" t="n">
-        <v>808.249384251374</v>
+        <v>808.233195667874</v>
       </c>
       <c r="H103" t="n">
         <v>9678</v>
@@ -8796,7 +8796,7 @@
         <v>170</v>
       </c>
       <c r="G104" t="n">
-        <v>808.249384251374</v>
+        <v>808.233195667874</v>
       </c>
       <c r="H104" t="n">
         <v>9678</v>
@@ -8881,7 +8881,7 @@
         <v>170</v>
       </c>
       <c r="G105" t="n">
-        <v>808.249384251374</v>
+        <v>808.233195667874</v>
       </c>
       <c r="H105" t="n">
         <v>9678</v>
@@ -8966,7 +8966,7 @@
         <v>170</v>
       </c>
       <c r="G106" t="n">
-        <v>808.249384251374</v>
+        <v>808.233195667874</v>
       </c>
       <c r="H106" t="n">
         <v>9678</v>
@@ -9051,7 +9051,7 @@
         <v>0.05619</v>
       </c>
       <c r="G107" t="n">
-        <v>0.104476648387946</v>
+        <v>0.104487393092963</v>
       </c>
       <c r="H107" t="n">
         <v>0.7</v>
@@ -9132,7 +9132,7 @@
         <v>0.05619</v>
       </c>
       <c r="G108" t="n">
-        <v>0.104476648387946</v>
+        <v>0.104487393092963</v>
       </c>
       <c r="H108" t="n">
         <v>0.7</v>
@@ -9368,10 +9368,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.4915</v>
+        <v>0.4917</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5499166666666671</v>
+        <v>0.549875</v>
       </c>
       <c r="H111" t="n">
         <v>1.26</v>
@@ -9382,13 +9382,13 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.28</v>
+        <v>0.2798</v>
       </c>
       <c r="M111" t="n">
-        <v>0.893</v>
+        <v>0.89272</v>
       </c>
       <c r="N111" t="n">
-        <v>1.0163</v>
+        <v>1.01609</v>
       </c>
       <c r="O111" t="n">
         <v>1816987.417</v>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.4915</v>
+        <v>0.4917</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5499166666666671</v>
+        <v>0.549875</v>
       </c>
       <c r="H112" t="n">
         <v>1.26</v>
@@ -9459,13 +9459,13 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.28</v>
+        <v>0.2798</v>
       </c>
       <c r="M112" t="n">
-        <v>0.893</v>
+        <v>0.89272</v>
       </c>
       <c r="N112" t="n">
-        <v>1.0163</v>
+        <v>1.01609</v>
       </c>
       <c r="O112" t="n">
         <v>1816987.417</v>
@@ -9837,7 +9837,7 @@
         <v>0.87</v>
       </c>
       <c r="G117" t="n">
-        <v>0.940272909292348</v>
+        <v>0.940235467399761</v>
       </c>
       <c r="H117" t="n">
         <v>3.8</v>
@@ -9918,7 +9918,7 @@
         <v>0.018</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0186947647041822</v>
+        <v>0.0186992751937709</v>
       </c>
       <c r="H118" t="n">
         <v>0.044</v>
@@ -9999,7 +9999,7 @@
         <v>0.018</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0186947647041822</v>
+        <v>0.0186992751937709</v>
       </c>
       <c r="H119" t="n">
         <v>0.044</v>
@@ -10080,7 +10080,7 @@
         <v>241</v>
       </c>
       <c r="G120" t="n">
-        <v>1719.77480798019</v>
+        <v>1719.75861939669</v>
       </c>
       <c r="H120" t="n">
         <v>26000</v>
@@ -10165,7 +10165,7 @@
         <v>241</v>
       </c>
       <c r="G121" t="n">
-        <v>1719.77480798019</v>
+        <v>1719.75861939669</v>
       </c>
       <c r="H121" t="n">
         <v>26000</v>
@@ -10250,7 +10250,7 @@
         <v>241</v>
       </c>
       <c r="G122" t="n">
-        <v>1719.77480798019</v>
+        <v>1719.75861939669</v>
       </c>
       <c r="H122" t="n">
         <v>26000</v>
@@ -10335,7 +10335,7 @@
         <v>241</v>
       </c>
       <c r="G123" t="n">
-        <v>1719.77480798019</v>
+        <v>1719.75861939669</v>
       </c>
       <c r="H123" t="n">
         <v>26000</v>
@@ -10420,7 +10420,7 @@
         <v>0.05101</v>
       </c>
       <c r="G124" t="n">
-        <v>0.102488831070266</v>
+        <v>0.102548212332608</v>
       </c>
       <c r="H124" t="n">
         <v>0.7</v>
@@ -10501,7 +10501,7 @@
         <v>0.05101</v>
       </c>
       <c r="G125" t="n">
-        <v>0.102488831070266</v>
+        <v>0.102548212332608</v>
       </c>
       <c r="H125" t="n">
         <v>0.7</v>
@@ -10737,27 +10737,27 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.5555</v>
+        <v>0.5553</v>
       </c>
       <c r="G128" t="n">
-        <v>0.578266666666667</v>
+        <v>0.578225</v>
       </c>
       <c r="H128" t="n">
         <v>1.26</v>
       </c>
       <c r="I128" t="n">
-        <v>1.0745</v>
+        <v>1.07435</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.2925</v>
+        <v>0.29235</v>
       </c>
       <c r="M128" t="n">
-        <v>0.893</v>
+        <v>0.89272</v>
       </c>
       <c r="N128" t="n">
-        <v>1.0022</v>
+        <v>1.00208</v>
       </c>
       <c r="O128" t="n">
         <v>1816987.417</v>
@@ -10814,27 +10814,27 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.5555</v>
+        <v>0.5553</v>
       </c>
       <c r="G129" t="n">
-        <v>0.578266666666667</v>
+        <v>0.578225</v>
       </c>
       <c r="H129" t="n">
         <v>1.26</v>
       </c>
       <c r="I129" t="n">
-        <v>1.0745</v>
+        <v>1.07435</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.2925</v>
+        <v>0.29235</v>
       </c>
       <c r="M129" t="n">
-        <v>0.893</v>
+        <v>0.89272</v>
       </c>
       <c r="N129" t="n">
-        <v>1.0022</v>
+        <v>1.00208</v>
       </c>
       <c r="O129" t="n">
         <v>1816987.417</v>
@@ -11287,7 +11287,7 @@
         <v>0.019</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0192710358906229</v>
+        <v>0.0192755463802115</v>
       </c>
       <c r="H135" t="n">
         <v>0.044</v>
@@ -11368,7 +11368,7 @@
         <v>0.019</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0192710358906229</v>
+        <v>0.0192755463802115</v>
       </c>
       <c r="H136" t="n">
         <v>0.044</v>
@@ -11449,7 +11449,7 @@
         <v>330</v>
       </c>
       <c r="G137" t="n">
-        <v>1747.38497747171</v>
+        <v>1747.36878888821</v>
       </c>
       <c r="H137" t="n">
         <v>26000</v>
@@ -11534,7 +11534,7 @@
         <v>330</v>
       </c>
       <c r="G138" t="n">
-        <v>1747.38497747171</v>
+        <v>1747.36878888821</v>
       </c>
       <c r="H138" t="n">
         <v>26000</v>
@@ -11619,7 +11619,7 @@
         <v>330</v>
       </c>
       <c r="G139" t="n">
-        <v>1747.38497747171</v>
+        <v>1747.36878888821</v>
       </c>
       <c r="H139" t="n">
         <v>26000</v>
@@ -11704,7 +11704,7 @@
         <v>330</v>
       </c>
       <c r="G140" t="n">
-        <v>1747.38497747171</v>
+        <v>1747.36878888821</v>
       </c>
       <c r="H140" t="n">
         <v>26000</v>
@@ -11789,7 +11789,7 @@
         <v>0.06730999999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>0.12511030294329</v>
+        <v>0.125170744585316</v>
       </c>
       <c r="H141" t="n">
         <v>0.823303787577613</v>
@@ -11870,7 +11870,7 @@
         <v>0.06730999999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>0.12511030294329</v>
+        <v>0.125170744585316</v>
       </c>
       <c r="H142" t="n">
         <v>0.823303787577613</v>
@@ -12109,7 +12109,7 @@
         <v>0.59</v>
       </c>
       <c r="G145" t="n">
-        <v>0.602733333333333</v>
+        <v>0.602725</v>
       </c>
       <c r="H145" t="n">
         <v>1.26</v>
@@ -12123,7 +12123,7 @@
         <v>0.36</v>
       </c>
       <c r="M145" t="n">
-        <v>0.893</v>
+        <v>0.89272</v>
       </c>
       <c r="N145" t="n">
         <v>0.9855</v>
@@ -12186,7 +12186,7 @@
         <v>0.59</v>
       </c>
       <c r="G146" t="n">
-        <v>0.602733333333333</v>
+        <v>0.602725</v>
       </c>
       <c r="H146" t="n">
         <v>1.26</v>
@@ -12200,7 +12200,7 @@
         <v>0.36</v>
       </c>
       <c r="M146" t="n">
-        <v>0.893</v>
+        <v>0.89272</v>
       </c>
       <c r="N146" t="n">
         <v>0.9855</v>
@@ -12575,7 +12575,7 @@
         <v>0.345</v>
       </c>
       <c r="G151" t="n">
-        <v>0.768127436066986</v>
+        <v>0.768092306371656</v>
       </c>
       <c r="H151" t="n">
         <v>3.5</v>
@@ -12656,7 +12656,7 @@
         <v>0.018</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0192540867380805</v>
+        <v>0.0192585972276692</v>
       </c>
       <c r="H152" t="n">
         <v>0.044</v>
@@ -12737,7 +12737,7 @@
         <v>0.018</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0192540867380805</v>
+        <v>0.0192585972276692</v>
       </c>
       <c r="H153" t="n">
         <v>0.044</v>
@@ -12818,7 +12818,7 @@
         <v>365</v>
       </c>
       <c r="G154" t="n">
-        <v>1779.25368397985</v>
+        <v>1779.23721628284</v>
       </c>
       <c r="H154" t="n">
         <v>26000</v>
@@ -12903,7 +12903,7 @@
         <v>365</v>
       </c>
       <c r="G155" t="n">
-        <v>1779.25368397985</v>
+        <v>1779.23721628284</v>
       </c>
       <c r="H155" t="n">
         <v>26000</v>
@@ -12988,7 +12988,7 @@
         <v>365</v>
       </c>
       <c r="G156" t="n">
-        <v>1779.25368397985</v>
+        <v>1779.23721628284</v>
       </c>
       <c r="H156" t="n">
         <v>26000</v>
@@ -13073,7 +13073,7 @@
         <v>365</v>
       </c>
       <c r="G157" t="n">
-        <v>1779.25368397985</v>
+        <v>1779.23721628284</v>
       </c>
       <c r="H157" t="n">
         <v>26000</v>
@@ -13158,7 +13158,7 @@
         <v>0.06335</v>
       </c>
       <c r="G158" t="n">
-        <v>0.110588135010799</v>
+        <v>0.110651997877846</v>
       </c>
       <c r="H158" t="n">
         <v>0.823303787577613</v>
@@ -13239,7 +13239,7 @@
         <v>0.06335</v>
       </c>
       <c r="G159" t="n">
-        <v>0.110588135010799</v>
+        <v>0.110651997877846</v>
       </c>
       <c r="H159" t="n">
         <v>0.823303787577613</v>
@@ -13944,7 +13944,7 @@
         <v>0.305</v>
       </c>
       <c r="G168" t="n">
-        <v>0.6999331720719481</v>
+        <v>0.699895440176964</v>
       </c>
       <c r="H168" t="n">
         <v>3.77</v>
@@ -14025,7 +14025,7 @@
         <v>0.019</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0196121630248821</v>
+        <v>0.0196145459911424</v>
       </c>
       <c r="H169" t="n">
         <v>0.044</v>
@@ -14106,7 +14106,7 @@
         <v>0.019</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0196121630248821</v>
+        <v>0.0196145459911424</v>
       </c>
       <c r="H170" t="n">
         <v>0.044</v>
@@ -14527,7 +14527,7 @@
         <v>0.06335</v>
       </c>
       <c r="G175" t="n">
-        <v>0.110907939661085</v>
+        <v>0.110964078321441</v>
       </c>
       <c r="H175" t="n">
         <v>0.823303787577613</v>
@@ -14608,7 +14608,7 @@
         <v>0.06335</v>
       </c>
       <c r="G176" t="n">
-        <v>0.110907939661085</v>
+        <v>0.110964078321441</v>
       </c>
       <c r="H176" t="n">
         <v>0.823303787577613</v>
@@ -15313,7 +15313,7 @@
         <v>0.26</v>
       </c>
       <c r="G185" t="n">
-        <v>0.690579414120106</v>
+        <v>0.690537832031756</v>
       </c>
       <c r="H185" t="n">
         <v>3.77</v>
@@ -15394,7 +15394,7 @@
         <v>0.019</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0188485266612457</v>
+        <v>0.018850909627506</v>
       </c>
       <c r="H186" t="n">
         <v>0.04</v>
@@ -15475,7 +15475,7 @@
         <v>0.019</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0188485266612457</v>
+        <v>0.018850909627506</v>
       </c>
       <c r="H187" t="n">
         <v>0.04</v>
@@ -15556,13 +15556,13 @@
         <v>770</v>
       </c>
       <c r="G188" t="n">
-        <v>3763.9001650206</v>
+        <v>3584.28693503237</v>
       </c>
       <c r="H188" t="n">
         <v>46000</v>
       </c>
       <c r="I188" t="n">
-        <v>21772.08989</v>
+        <v>16943.44808</v>
       </c>
       <c r="J188" t="n">
         <v>54.5454545454545</v>
@@ -15577,7 +15577,7 @@
         <v>5010</v>
       </c>
       <c r="N188" t="n">
-        <v>12612.75838</v>
+        <v>12096.6776</v>
       </c>
       <c r="O188" t="n">
         <v>1816987.417</v>
@@ -15641,13 +15641,13 @@
         <v>770</v>
       </c>
       <c r="G189" t="n">
-        <v>3763.9001650206</v>
+        <v>3584.28693503237</v>
       </c>
       <c r="H189" t="n">
         <v>46000</v>
       </c>
       <c r="I189" t="n">
-        <v>21772.08989</v>
+        <v>16943.44808</v>
       </c>
       <c r="J189" t="n">
         <v>54.5454545454545</v>
@@ -15662,7 +15662,7 @@
         <v>5010</v>
       </c>
       <c r="N189" t="n">
-        <v>12612.75838</v>
+        <v>12096.6776</v>
       </c>
       <c r="O189" t="n">
         <v>1816987.417</v>
@@ -15726,13 +15726,13 @@
         <v>770</v>
       </c>
       <c r="G190" t="n">
-        <v>3763.9001650206</v>
+        <v>3584.28693503237</v>
       </c>
       <c r="H190" t="n">
         <v>46000</v>
       </c>
       <c r="I190" t="n">
-        <v>21772.08989</v>
+        <v>16943.44808</v>
       </c>
       <c r="J190" t="n">
         <v>54.5454545454545</v>
@@ -15747,7 +15747,7 @@
         <v>5010</v>
       </c>
       <c r="N190" t="n">
-        <v>12612.75838</v>
+        <v>12096.6776</v>
       </c>
       <c r="O190" t="n">
         <v>1816987.417</v>
@@ -15811,13 +15811,13 @@
         <v>770</v>
       </c>
       <c r="G191" t="n">
-        <v>3763.9001650206</v>
+        <v>3584.28693503237</v>
       </c>
       <c r="H191" t="n">
         <v>46000</v>
       </c>
       <c r="I191" t="n">
-        <v>21772.08989</v>
+        <v>16943.44808</v>
       </c>
       <c r="J191" t="n">
         <v>54.5454545454545</v>
@@ -15832,7 +15832,7 @@
         <v>5010</v>
       </c>
       <c r="N191" t="n">
-        <v>12612.75838</v>
+        <v>12096.6776</v>
       </c>
       <c r="O191" t="n">
         <v>1816987.417</v>
@@ -15896,7 +15896,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="G192" t="n">
-        <v>0.11655244178792</v>
+        <v>0.116608580448276</v>
       </c>
       <c r="H192" t="n">
         <v>0.823303787577613</v>
@@ -15977,7 +15977,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="G193" t="n">
-        <v>0.11655244178792</v>
+        <v>0.116608580448276</v>
       </c>
       <c r="H193" t="n">
         <v>0.823303787577613</v>
@@ -16652,6 +16652,1375 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.670507690642522</v>
+      </c>
+      <c r="H202" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1.5404</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1.9856</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0191818181818182</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.02615</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0191818181818182</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.02615</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>490</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2624.66395229482</v>
+      </c>
+      <c r="H205" t="n">
+        <v>46000</v>
+      </c>
+      <c r="I205" t="n">
+        <v>12475.08199</v>
+      </c>
+      <c r="J205" t="n">
+        <v>47.2727272727273</v>
+      </c>
+      <c r="K205" t="n">
+        <v>60</v>
+      </c>
+      <c r="L205" t="n">
+        <v>380</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2760</v>
+      </c>
+      <c r="N205" t="n">
+        <v>8250.5</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>490</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2624.66395229482</v>
+      </c>
+      <c r="H206" t="n">
+        <v>46000</v>
+      </c>
+      <c r="I206" t="n">
+        <v>12475.08199</v>
+      </c>
+      <c r="J206" t="n">
+        <v>47.2727272727273</v>
+      </c>
+      <c r="K206" t="n">
+        <v>60</v>
+      </c>
+      <c r="L206" t="n">
+        <v>380</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2760</v>
+      </c>
+      <c r="N206" t="n">
+        <v>8250.5</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>490</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2624.66395229482</v>
+      </c>
+      <c r="H207" t="n">
+        <v>46000</v>
+      </c>
+      <c r="I207" t="n">
+        <v>12475.08199</v>
+      </c>
+      <c r="J207" t="n">
+        <v>47.2727272727273</v>
+      </c>
+      <c r="K207" t="n">
+        <v>60</v>
+      </c>
+      <c r="L207" t="n">
+        <v>380</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2760</v>
+      </c>
+      <c r="N207" t="n">
+        <v>8250.5</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>490</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2624.66395229482</v>
+      </c>
+      <c r="H208" t="n">
+        <v>46000</v>
+      </c>
+      <c r="I208" t="n">
+        <v>12475.08199</v>
+      </c>
+      <c r="J208" t="n">
+        <v>47.2727272727273</v>
+      </c>
+      <c r="K208" t="n">
+        <v>60</v>
+      </c>
+      <c r="L208" t="n">
+        <v>380</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2760</v>
+      </c>
+      <c r="N208" t="n">
+        <v>8250.5</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.103637813504754</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.823303787577613</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.23162</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.07543</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.14335</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.20668</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.103637813504754</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.823303787577613</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.23162</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.07543</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.14335</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.20668</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.460509090909091</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.77615</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.9011</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.460509090909091</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.77615</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.9011</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.595181818181818</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1.04925</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.8596</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.595181818181818</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1.04925</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.8596</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.887818181818182</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1.1945</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1.331</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.887818181818182</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1.1945</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1.331</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.112745454545455</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.39425</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.2013</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.2657</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.112745454545455</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.39425</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.2013</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.2657</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
+++ b/state_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
@@ -15556,13 +15556,13 @@
         <v>770</v>
       </c>
       <c r="G188" t="n">
-        <v>3584.28693503237</v>
+        <v>3456.36094374706</v>
       </c>
       <c r="H188" t="n">
         <v>46000</v>
       </c>
       <c r="I188" t="n">
-        <v>16943.44808</v>
+        <v>13676.19452</v>
       </c>
       <c r="J188" t="n">
         <v>54.5454545454545</v>
@@ -15577,7 +15577,7 @@
         <v>5010</v>
       </c>
       <c r="N188" t="n">
-        <v>12096.6776</v>
+        <v>12000</v>
       </c>
       <c r="O188" t="n">
         <v>1816987.417</v>
@@ -15641,13 +15641,13 @@
         <v>770</v>
       </c>
       <c r="G189" t="n">
-        <v>3584.28693503237</v>
+        <v>3456.36094374706</v>
       </c>
       <c r="H189" t="n">
         <v>46000</v>
       </c>
       <c r="I189" t="n">
-        <v>16943.44808</v>
+        <v>13676.19452</v>
       </c>
       <c r="J189" t="n">
         <v>54.5454545454545</v>
@@ -15662,7 +15662,7 @@
         <v>5010</v>
       </c>
       <c r="N189" t="n">
-        <v>12096.6776</v>
+        <v>12000</v>
       </c>
       <c r="O189" t="n">
         <v>1816987.417</v>
@@ -15726,13 +15726,13 @@
         <v>770</v>
       </c>
       <c r="G190" t="n">
-        <v>3584.28693503237</v>
+        <v>3456.36094374706</v>
       </c>
       <c r="H190" t="n">
         <v>46000</v>
       </c>
       <c r="I190" t="n">
-        <v>16943.44808</v>
+        <v>13676.19452</v>
       </c>
       <c r="J190" t="n">
         <v>54.5454545454545</v>
@@ -15747,7 +15747,7 @@
         <v>5010</v>
       </c>
       <c r="N190" t="n">
-        <v>12096.6776</v>
+        <v>12000</v>
       </c>
       <c r="O190" t="n">
         <v>1816987.417</v>
@@ -15811,13 +15811,13 @@
         <v>770</v>
       </c>
       <c r="G191" t="n">
-        <v>3584.28693503237</v>
+        <v>3456.36094374706</v>
       </c>
       <c r="H191" t="n">
         <v>46000</v>
       </c>
       <c r="I191" t="n">
-        <v>16943.44808</v>
+        <v>13676.19452</v>
       </c>
       <c r="J191" t="n">
         <v>54.5454545454545</v>
@@ -15832,7 +15832,7 @@
         <v>5010</v>
       </c>
       <c r="N191" t="n">
-        <v>12096.6776</v>
+        <v>12000</v>
       </c>
       <c r="O191" t="n">
         <v>1816987.417</v>
@@ -16925,13 +16925,13 @@
         <v>490</v>
       </c>
       <c r="G205" t="n">
-        <v>2624.66395229482</v>
+        <v>2496.73796100951</v>
       </c>
       <c r="H205" t="n">
         <v>46000</v>
       </c>
       <c r="I205" t="n">
-        <v>12475.08199</v>
+        <v>10741.23147</v>
       </c>
       <c r="J205" t="n">
         <v>47.2727272727273</v>
@@ -16946,7 +16946,7 @@
         <v>2760</v>
       </c>
       <c r="N205" t="n">
-        <v>8250.5</v>
+        <v>8146.99259</v>
       </c>
       <c r="O205" t="n">
         <v>1816987.417</v>
@@ -17010,13 +17010,13 @@
         <v>490</v>
       </c>
       <c r="G206" t="n">
-        <v>2624.66395229482</v>
+        <v>2496.73796100951</v>
       </c>
       <c r="H206" t="n">
         <v>46000</v>
       </c>
       <c r="I206" t="n">
-        <v>12475.08199</v>
+        <v>10741.23147</v>
       </c>
       <c r="J206" t="n">
         <v>47.2727272727273</v>
@@ -17031,7 +17031,7 @@
         <v>2760</v>
       </c>
       <c r="N206" t="n">
-        <v>8250.5</v>
+        <v>8146.99259</v>
       </c>
       <c r="O206" t="n">
         <v>1816987.417</v>
@@ -17095,13 +17095,13 @@
         <v>490</v>
       </c>
       <c r="G207" t="n">
-        <v>2624.66395229482</v>
+        <v>2496.73796100951</v>
       </c>
       <c r="H207" t="n">
         <v>46000</v>
       </c>
       <c r="I207" t="n">
-        <v>12475.08199</v>
+        <v>10741.23147</v>
       </c>
       <c r="J207" t="n">
         <v>47.2727272727273</v>
@@ -17116,7 +17116,7 @@
         <v>2760</v>
       </c>
       <c r="N207" t="n">
-        <v>8250.5</v>
+        <v>8146.99259</v>
       </c>
       <c r="O207" t="n">
         <v>1816987.417</v>
@@ -17180,13 +17180,13 @@
         <v>490</v>
       </c>
       <c r="G208" t="n">
-        <v>2624.66395229482</v>
+        <v>2496.73796100951</v>
       </c>
       <c r="H208" t="n">
         <v>46000</v>
       </c>
       <c r="I208" t="n">
-        <v>12475.08199</v>
+        <v>10741.23147</v>
       </c>
       <c r="J208" t="n">
         <v>47.2727272727273</v>
@@ -17201,7 +17201,7 @@
         <v>2760</v>
       </c>
       <c r="N208" t="n">
-        <v>8250.5</v>
+        <v>8146.99259</v>
       </c>
       <c r="O208" t="n">
         <v>1816987.417</v>
